--- a/doc/04_機能一覧_川崎.java.xlsx
+++ b/doc/04_機能一覧_川崎.java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE52DC-1EF0-4584-8997-270C17315441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8F9F17-F904-4D67-AB11-16B7D718CC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,7 +896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/doc/04_機能一覧_川崎.java.xlsx
+++ b/doc/04_機能一覧_川崎.java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8F9F17-F904-4D67-AB11-16B7D718CC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D2B4F9-D8FB-448C-88DE-69E268A929EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="138">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -170,31 +170,7 @@
     <t>スケジュール一覧</t>
   </si>
   <si>
-    <t>予定入力</t>
-  </si>
-  <si>
-    <t>予定の更新・削除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿機能</t>
-  </si>
-  <si>
-    <t>固定費登録欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費登録欄</t>
-  </si>
-  <si>
-    <t>更新・削除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天気予報・服装指数表示機能</t>
-  </si>
-  <si>
-    <t>表示</t>
   </si>
   <si>
     <t>ログイン機能</t>
@@ -210,79 +186,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー更新機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー情報更新</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予定がある日だけを全件テーブル表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付（カレンダー）・その日の予定（セレクト）、備考欄（入力）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①目標②残高③貯金目安（目標金額÷月）④残高と貯金目安の差額を表示
-変動費テーブル、固定費テーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付（カレンダー）・カテゴリー（セレクト）・使った金額（入力）・繰り返し（セレクト）・メモ（入力）</t>
-  </si>
-  <si>
-    <t>日付（カレンダー）・カテゴリー（セレクト）・使った金額（入力）・メモ（入力）</t>
-  </si>
-  <si>
-    <t>登録した情報の更新・削除
-一覧ページのテーブル内で行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天気予報、気温、服装の目安を表示</t>
-  </si>
-  <si>
-    <t>貯金理由、達成までの期間、目標金額、給料、暑がり寒がりを更新</t>
-  </si>
-  <si>
-    <r>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、暑がり寒がりを登録</t>
-    </r>
   </si>
   <si>
     <t>石倉</t>
@@ -304,35 +212,918 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>JK001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JT001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JL001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JU001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>JS003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JK001</t>
+  </si>
+  <si>
+    <t>JS004</t>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新したいカテゴリーを選択して更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容をテキストボックスに入力して更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JS005</t>
+  </si>
+  <si>
+    <t>JS006</t>
+  </si>
+  <si>
+    <t>JS007</t>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したデータの削除</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JS008</t>
+  </si>
+  <si>
+    <t>JS009</t>
+  </si>
+  <si>
+    <t>JS010</t>
+  </si>
+  <si>
+    <t>家計簿機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿サマリー</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標、残り残高、貯金目安、使えるお金を表示</t>
+    <rPh sb="8" eb="10">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メヤス</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録欄　日付</t>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーで登録したい日にちを選択して登録（初期値は当日）</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録欄　カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーを選択して登録（初期値は家賃）</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤチン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>JK002</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>JK003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JT001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JL001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JR001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JU001</t>
+  </si>
+  <si>
+    <t>固定費登録欄　メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録欄　金額</t>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された金額を登録（最大１００万）</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録欄　金額</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーで登録したい日付を選択して登録（初期値は翌日）</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨクジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーを選択して登録（初期値は遊び）</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を登録（１００文字まで入力可能）</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を登録（１００文字まで入力可能）</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録欄　日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーを選択して登録（初期値は食費）</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショクヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録欄　カテゴリー</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録欄　メモ</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK004</t>
+  </si>
+  <si>
+    <t>JK005</t>
+  </si>
+  <si>
+    <t>JK006</t>
+  </si>
+  <si>
+    <t>JK007</t>
+  </si>
+  <si>
+    <t>JK008</t>
+  </si>
+  <si>
+    <t>JK009</t>
+  </si>
+  <si>
+    <t>変動費登録欄　リセット</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK010</t>
+  </si>
+  <si>
+    <t>入力された内容を初期の状態に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK011</t>
+  </si>
+  <si>
+    <t>JK012</t>
+  </si>
+  <si>
+    <t>カレンダーで更新したい日付をに選択し更新</t>
+  </si>
+  <si>
+    <t>カレンダーで更新したい日付をに選択し更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK013</t>
+  </si>
+  <si>
+    <t>JK014</t>
+  </si>
+  <si>
+    <t>JK015</t>
+  </si>
+  <si>
+    <t>JK016</t>
+  </si>
+  <si>
+    <t>変動費登録欄　日付</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK017</t>
+  </si>
+  <si>
+    <t>JK018</t>
+  </si>
+  <si>
+    <t>変動費登録欄　カテゴリー</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録欄　金額</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK019</t>
+  </si>
+  <si>
+    <t>変動費登録欄　メモ</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK020</t>
+  </si>
+  <si>
+    <t>固定費登録欄　日付</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK021</t>
+  </si>
+  <si>
+    <t>JK022</t>
+  </si>
+  <si>
+    <t>JK023</t>
+  </si>
+  <si>
+    <t>固定費登録欄　リセット</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録欄　繰り返し</t>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返したい期間をカテゴリーから選択して登録（初期値は一か月）</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK024</t>
+  </si>
+  <si>
+    <t>JK025</t>
+  </si>
+  <si>
+    <t>リセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録欄　カテゴリー</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録欄　金額</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録欄　メモ</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録欄　日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK026</t>
+  </si>
+  <si>
+    <t>JK027</t>
+  </si>
+  <si>
+    <t>JK028</t>
+  </si>
+  <si>
+    <t>変動費登録欄　カテゴリー</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録欄　金額</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録欄　メモ</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気予報、気温、服装の目安</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、PWを入力してログイン（未入力でエラーメッセージを表示）</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された文字を登録（１～１５文字の範囲）</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＰＷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR002</t>
+  </si>
+  <si>
+    <t>体質</t>
+    <rPh sb="0" eb="2">
+      <t>タイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーで自分の体質を選択して登録</t>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイシツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録更新</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯金理由</t>
+    <rPh sb="0" eb="2">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成したい月</t>
+    <rPh sb="0" eb="2">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給料</t>
+    <rPh sb="0" eb="2">
+      <t>キュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR003</t>
+  </si>
+  <si>
+    <t>JU002</t>
+  </si>
+  <si>
+    <t>JU003</t>
+  </si>
+  <si>
+    <t>JU004</t>
+  </si>
+  <si>
+    <t>JU005</t>
+  </si>
+  <si>
+    <t>テキストボックスに更新内容を入力して更新（１００文字まで入力可能）</t>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容をテキストボックスに入力して更新（１年以内）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容をテキストボックスに入力して更新（最大１００万）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -340,7 +1131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,29 +1170,8 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,12 +1181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,19 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -894,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -907,7 +1659,7 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
   </cols>
@@ -920,10 +1672,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="H2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
@@ -935,24 +1687,24 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <v>44720</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
@@ -995,18 +1747,20 @@
       <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -1016,44 +1770,52 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="11" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="18" t="s">
-        <v>19</v>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1061,42 +1823,48 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" s="11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -1106,43 +1874,49 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="18" t="s">
-        <v>23</v>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8" t="s">
-        <v>25</v>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -1152,292 +1926,1254 @@
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="I15" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8" t="s">
-        <v>29</v>
+      <c r="D17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>26</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>27</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>28</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>29</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="2">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="2">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B47" s="2">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="2">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" s="2">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="2">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B51" s="2">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
+        <v>45</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B53" s="2">
+        <v>46</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B54" s="2">
+        <v>47</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B55" s="2">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="2">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="2">
+        <v>15</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="2">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="2">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="2">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="2">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="2">
+        <v>21</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="2">
+        <v>22</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="2">
+        <v>23</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="2">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="2">
+        <v>25</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="2">
+        <v>26</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="2">
+        <v>27</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="2">
+        <v>28</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="2">
+        <v>29</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_川崎.java.xlsx
+++ b/doc/04_機能一覧_川崎.java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D2B4F9-D8FB-448C-88DE-69E268A929EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22586FD9-E83D-4E3A-9AD0-6DDEE5A5D1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="143">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -365,13 +365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固定費登録欄　日付</t>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレンダーで登録したい日にちを選択して登録（初期値は当日）</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -394,10 +387,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固定費登録欄　カテゴリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カテゴリーを選択して登録（初期値は家賃）</t>
     <rPh sb="6" eb="8">
       <t>センタク</t>
@@ -420,17 +409,6 @@
     <t>JK003</t>
   </si>
   <si>
-    <t>固定費登録欄　メモ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費登録欄　金額</t>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキストボックスに入力された金額を登録（最大１００万）</t>
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
@@ -450,19 +428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変動費登録欄　金額</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレンダーで登録したい日付を選択して登録（初期値は翌日）</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -545,19 +510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変動費登録欄　日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カテゴリーを選択して登録（初期値は食費）</t>
     <rPh sb="6" eb="8">
       <t>センタク</t>
@@ -574,26 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変動費登録欄　カテゴリー</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費登録欄　メモ</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK004</t>
   </si>
   <si>
@@ -610,16 +542,6 @@
   </si>
   <si>
     <t>JK009</t>
-  </si>
-  <si>
-    <t>変動費登録欄　リセット</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>JK010</t>
@@ -681,77 +603,18 @@
     <t>JK016</t>
   </si>
   <si>
-    <t>変動費登録欄　日付</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK017</t>
   </si>
   <si>
     <t>JK018</t>
   </si>
   <si>
-    <t>変動費登録欄　カテゴリー</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費登録欄　金額</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK019</t>
   </si>
   <si>
-    <t>変動費登録欄　メモ</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK020</t>
   </si>
   <si>
-    <t>固定費登録欄　日付</t>
-    <rPh sb="0" eb="3">
-      <t>コテイヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK021</t>
   </si>
   <si>
@@ -759,26 +622,6 @@
   </si>
   <si>
     <t>JK023</t>
-  </si>
-  <si>
-    <t>固定費登録欄　リセット</t>
-    <rPh sb="0" eb="2">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費登録欄　繰り返し</t>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>繰り返したい期間をカテゴリーから選択して登録（初期値は一か月）</t>
@@ -822,55 +665,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固定費登録欄　カテゴリー</t>
-    <rPh sb="0" eb="3">
-      <t>コテイヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費登録欄　金額</t>
-    <rPh sb="0" eb="3">
-      <t>コテイヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費登録欄　メモ</t>
-    <rPh sb="0" eb="3">
-      <t>コテイヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費登録欄　日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK026</t>
   </si>
   <si>
@@ -878,48 +672,6 @@
   </si>
   <si>
     <t>JK028</t>
-  </si>
-  <si>
-    <t>変動費登録欄　カテゴリー</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費登録欄　金額</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費登録欄　メモ</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>天気予報、気温、服装の目安</t>
@@ -1016,16 +768,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>達成したい月</t>
-    <rPh sb="0" eb="2">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標金額</t>
     <rPh sb="0" eb="2">
       <t>モクヒョウ</t>
@@ -1123,6 +865,254 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成したい期限</t>
+    <rPh sb="0" eb="2">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費検索</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したデータの削除された日付を使って検索をする。</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　日付</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　カテゴリー</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　金額</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　カテゴリー</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　金額</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　メモ</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　メモ</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　金額</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　カテゴリー</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　日付</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　リセット</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　リセット</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　金額</t>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　繰り返し</t>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　日付</t>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　検索</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付検索</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付で検索</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK029</t>
+  </si>
+  <si>
+    <t>JK030</t>
+  </si>
+  <si>
+    <t>JK031</t>
+  </si>
+  <si>
+    <t>下日向</t>
+    <rPh sb="0" eb="3">
+      <t>シモヒナタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1185,7 +1175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1228,20 +1218,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1253,7 +1230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,12 +1252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1293,12 +1264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1307,6 +1272,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I71"/>
+  <dimension ref="A2:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B55"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1664,7 +1635,7 @@
     <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1672,12 +1643,12 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1687,31 +1658,35 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="13">
         <v>44720</v>
       </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="H5" s="13">
+        <v>44722</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1724,1058 +1699,1097 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="F20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="F21" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="F22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="E24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="F26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="F27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="F28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="E29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="E31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="E32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="F33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="F34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="F35" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="F36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F37" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="10" t="s">
+      <c r="F41" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H42" s="10" t="s">
+      <c r="F42" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="10" t="s">
+      <c r="F43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="10" t="s">
+      <c r="F44" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I44" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="10" t="s">
+      <c r="F45" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="D46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="F47" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>41</v>
       </c>
@@ -2783,25 +2797,26 @@
         <v>15</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>42</v>
       </c>
@@ -2809,25 +2824,26 @@
         <v>15</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>43</v>
       </c>
@@ -2835,193 +2851,241 @@
         <v>15</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>44</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="D51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="D52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="D53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="F54" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>134</v>
+      <c r="F55" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="H55" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2">
+        <v>49</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2">
+        <v>50</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I55" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="2">
+      <c r="I58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="14">
         <v>14</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="2">
-        <v>15</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="2">
-        <v>16</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="2">
-        <v>17</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3031,9 +3095,9 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3043,9 +3107,9 @@
       <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3055,9 +3119,9 @@
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3067,9 +3131,9 @@
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3079,9 +3143,9 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3093,7 +3157,7 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3105,7 +3169,7 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3117,7 +3181,7 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3129,7 +3193,7 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3141,7 +3205,7 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3153,7 +3217,7 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3165,7 +3229,7 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3174,6 +3238,42 @@
       <c r="G71" s="2"/>
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B72" s="2">
+        <v>27</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="2">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="2">
+        <v>29</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_川崎.java.xlsx
+++ b/doc/04_機能一覧_川崎.java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22586FD9-E83D-4E3A-9AD0-6DDEE5A5D1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC9FF8E-27E1-4500-8A3F-A959EBC72AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="172">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -339,32 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>家計簿サマリー</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標、残り残高、貯金目安、使えるお金を表示</t>
-    <rPh sb="8" eb="10">
-      <t>チョキン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>メヤス</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレンダーで登録したい日にちを選択して登録（初期値は当日）</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -1115,13 +1089,191 @@
       <t>シモヒナタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費一覧</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費一覧</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録画面で登録されたデータが全件表示される　５件以上はスクロールさせ５件以下はデータ数に合わせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK032</t>
+  </si>
+  <si>
+    <t>JK033</t>
+  </si>
+  <si>
+    <t>結果表示</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR００１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１登録完了←変動費・固定費・スケジュール・ユーザー登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR００２</t>
+  </si>
+  <si>
+    <t>JR００３</t>
+  </si>
+  <si>
+    <t>２登録失敗←変動費・固定費・スケジュール・ユーザー登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３更新完了←ユーザー更新</t>
+  </si>
+  <si>
+    <t>4更新失敗←ユーザー更新</t>
+  </si>
+  <si>
+    <t>５ログインエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR００４</t>
+  </si>
+  <si>
+    <t>JR００５</t>
+  </si>
+  <si>
+    <t>家計簿サマリー　目標</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されたデータを表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿サマリー　残りの月</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿サマリー　現在残高</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ザンダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿サマリー　貯金目安</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿サマリー　使えるお金</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルのdeadlineと現在の日付の差から月を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルのsalaryからデータを取得して表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルのsalaryからsavingsを引いた値を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルのgoal÷(deadline-現在の日付)の値を表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK034</t>
+  </si>
+  <si>
+    <t>JK035</t>
+  </si>
+  <si>
+    <t>JK036</t>
+  </si>
+  <si>
+    <t>JK037</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,6 +1312,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1175,7 +1333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1211,26 +1369,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,21 +1413,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{1F14E725-775F-411D-90DE-10E0605B6712}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1617,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I74"/>
+  <dimension ref="A2:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,10 +1787,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
@@ -1658,28 +1802,28 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="14">
         <v>44720</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="H4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
         <v>44722</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
@@ -1705,7 +1849,7 @@
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1760,7 +1904,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -1787,7 +1931,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -1814,7 +1958,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -1841,7 +1985,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>24</v>
@@ -1982,7 +2126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>11</v>
@@ -1997,13 +2141,13 @@
         <v>50</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>24</v>
@@ -2021,16 +2165,16 @@
         <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>24</v>
@@ -2048,16 +2192,16 @@
         <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>24</v>
@@ -2075,16 +2219,16 @@
         <v>49</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>24</v>
@@ -2102,22 +2246,22 @@
         <v>49</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>16</v>
@@ -2129,47 +2273,49 @@
         <v>49</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>18</v>
@@ -2181,16 +2327,16 @@
         <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>24</v>
@@ -2211,13 +2357,13 @@
         <v>32</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>24</v>
@@ -2238,13 +2384,13 @@
         <v>32</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>24</v>
@@ -2265,13 +2411,13 @@
         <v>32</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>24</v>
@@ -2292,13 +2438,13 @@
         <v>32</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>24</v>
@@ -2316,16 +2462,16 @@
         <v>49</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>24</v>
@@ -2343,16 +2489,16 @@
         <v>49</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>24</v>
@@ -2370,18 +2516,20 @@
         <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
@@ -2395,16 +2543,16 @@
         <v>49</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>24</v>
@@ -2422,16 +2570,16 @@
         <v>49</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>123</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>24</v>
@@ -2449,22 +2597,22 @@
         <v>49</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>29</v>
@@ -2476,22 +2624,22 @@
         <v>49</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>30</v>
@@ -2503,16 +2651,16 @@
         <v>49</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>24</v>
@@ -2530,20 +2678,18 @@
         <v>49</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
@@ -2560,13 +2706,13 @@
         <v>38</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>24</v>
@@ -2587,19 +2733,19 @@
         <v>38</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>34</v>
@@ -2611,22 +2757,22 @@
         <v>49</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>35</v>
@@ -2638,22 +2784,22 @@
         <v>49</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>36</v>
@@ -2665,22 +2811,22 @@
         <v>49</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>37</v>
@@ -2692,22 +2838,22 @@
         <v>49</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>38</v>
@@ -2719,22 +2865,22 @@
         <v>49</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>39</v>
@@ -2746,16 +2892,16 @@
         <v>49</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>24</v>
@@ -2776,10 +2922,10 @@
         <v>44</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>45</v>
@@ -2803,10 +2949,10 @@
         <v>44</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>45</v>
@@ -2824,25 +2970,25 @@
         <v>15</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>93</v>
+        <v>44</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>22</v>
+        <v>144</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>43</v>
@@ -2851,23 +2997,25 @@
         <v>15</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>44</v>
@@ -2875,26 +3023,26 @@
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>20</v>
+      <c r="D51" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>96</v>
+        <v>44</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>97</v>
+        <v>168</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>45</v>
@@ -2902,20 +3050,20 @@
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>20</v>
+      <c r="D52" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>98</v>
+        <v>44</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>97</v>
+        <v>169</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>24</v>
@@ -2929,26 +3077,26 @@
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>20</v>
+      <c r="D53" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>101</v>
+        <v>170</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>47</v>
@@ -2956,26 +3104,26 @@
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>102</v>
+      <c r="D54" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>103</v>
+        <v>44</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>111</v>
+        <v>171</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>48</v>
@@ -2983,20 +3131,20 @@
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>102</v>
+      <c r="D55" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>114</v>
+        <v>50</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>112</v>
+        <v>28</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>24</v>
@@ -3010,20 +3158,18 @@
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="D56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>24</v>
@@ -3038,19 +3184,19 @@
         <v>15</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
@@ -3065,159 +3211,324 @@
         <v>15</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2">
+        <v>52</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2">
+        <v>53</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2">
+        <v>54</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2">
+        <v>55</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="G62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2">
+        <v>56</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2">
+        <v>57</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H58" s="8" t="s">
+      <c r="E64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="14">
-        <v>14</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="2">
-        <v>15</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="2">
-        <v>16</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="2">
-        <v>17</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="2">
-        <v>18</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="2">
+      <c r="I64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2">
+        <v>58</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2">
+        <v>60</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2">
+        <v>61</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2">
+        <v>62</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="2">
         <v>19</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="2">
-        <v>20</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="2">
-        <v>21</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="2">
-        <v>22</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="2">
-        <v>23</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="2">
-        <v>24</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="2">
-        <v>25</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3227,9 +3538,9 @@
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B71" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3239,9 +3550,9 @@
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B72" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3251,9 +3562,9 @@
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B73" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3263,9 +3574,9 @@
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B74" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3274,6 +3585,78 @@
       <c r="G74" s="2"/>
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="2">
+        <v>24</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="2">
+        <v>25</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="2">
+        <v>26</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="2">
+        <v>27</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="2">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="2">
+        <v>29</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_川崎.java.xlsx
+++ b/doc/04_機能一覧_川崎.java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC9FF8E-27E1-4500-8A3F-A959EBC72AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880804B-5695-4F47-B9D4-D797896706D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="176">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1267,6 +1267,30 @@
   </si>
   <si>
     <t>JK037</t>
+  </si>
+  <si>
+    <t>ログアウト機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JL002</t>
+  </si>
+  <si>
+    <t>ログアウトするとログイン画面に戻る</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1761,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I80"/>
+  <dimension ref="A2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3175,7 +3199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>50</v>
@@ -3183,24 +3207,20 @@
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="D57" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
@@ -3217,10 +3237,10 @@
         <v>32</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>95</v>
@@ -3229,7 +3249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>52</v>
@@ -3244,19 +3264,19 @@
         <v>32</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>53</v>
@@ -3265,19 +3285,19 @@
         <v>15</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>24</v>
@@ -3298,13 +3318,13 @@
         <v>38</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>24</v>
@@ -3325,13 +3345,13 @@
         <v>38</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>24</v>
@@ -3352,10 +3372,10 @@
         <v>38</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>111</v>
@@ -3379,13 +3399,13 @@
         <v>38</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>39</v>
+        <v>107</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>24</v>
@@ -3399,20 +3419,20 @@
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>148</v>
+      <c r="D65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>149</v>
+        <v>108</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>24</v>
@@ -3436,16 +3456,16 @@
         <v>148</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>60</v>
@@ -3463,10 +3483,10 @@
         <v>148</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>24</v>
@@ -3490,10 +3510,10 @@
         <v>148</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>24</v>
@@ -3517,30 +3537,45 @@
         <v>148</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2">
+        <v>63</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="2">
-        <v>19</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B71" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3552,7 +3587,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B72" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3564,7 +3599,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B73" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3576,7 +3611,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B74" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3588,7 +3623,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B75" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3600,7 +3635,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B76" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3612,7 +3647,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B77" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3624,7 +3659,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3636,7 +3671,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B79" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3648,7 +3683,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3657,6 +3692,18 @@
       <c r="G80" s="2"/>
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B81" s="2">
+        <v>29</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_川崎.java.xlsx
+++ b/doc/04_機能一覧_川崎.java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880804B-5695-4F47-B9D4-D797896706D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543430EF-1740-479A-BA40-CB201A08586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="184">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -383,50 +383,6 @@
     <t>JK003</t>
   </si>
   <si>
-    <t>テキストボックスに入力された金額を登録（最大１００万）</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダーで登録したい日付を選択して登録（初期値は翌日）</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヨクジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カテゴリーを選択して登録（初期値は遊び）</t>
     <rPh sb="6" eb="8">
       <t>センタク</t>
@@ -549,22 +505,6 @@
     <t>カレンダーで更新したい日付をに選択し更新</t>
   </si>
   <si>
-    <t>カレンダーで更新したい日付をに選択し更新</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK013</t>
   </si>
   <si>
@@ -598,37 +538,6 @@
     <t>JK023</t>
   </si>
   <si>
-    <t>繰り返したい期間をカテゴリーから選択して登録（初期値は一か月）</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イッ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK024</t>
   </si>
   <si>
@@ -653,19 +562,6 @@
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID、PWを入力してログイン（未入力でエラーメッセージを表示）</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -706,32 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カテゴリーで自分の体質を選択して登録</t>
-    <rPh sb="6" eb="8">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイシツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録更新</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>貯金理由</t>
     <rPh sb="0" eb="2">
       <t>チョキン</t>
@@ -774,75 +644,6 @@
     <t>JU005</t>
   </si>
   <si>
-    <t>テキストボックスに更新内容を入力して更新（１００文字まで入力可能）</t>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新内容をテキストボックスに入力して更新（１年以内）</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新内容をテキストボックスに入力して更新（最大１００万）</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>マン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>達成したい期限</t>
     <rPh sb="0" eb="2">
       <t>タッセイ</t>
@@ -860,32 +661,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固定費検索</t>
-    <rPh sb="0" eb="3">
-      <t>コテイヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録したデータの削除された日付を使って検索をする。</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>固定費　日付</t>
     <rPh sb="0" eb="3">
       <t>コテイヒ</t>
@@ -913,10 +688,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固定費　メモ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変動費　日付</t>
     <rPh sb="0" eb="2">
       <t>ヘンドウ</t>
@@ -963,118 +734,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変動費　メモ</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費　金額</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費　カテゴリー</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費　日付</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費　リセット</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費　リセット</t>
-    <rPh sb="0" eb="2">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費　金額</t>
-    <rPh sb="4" eb="6">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費　カテゴリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費　繰り返し</t>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定費　日付</t>
-    <rPh sb="4" eb="6">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費　検索</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付検索</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付で検索</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JK029</t>
   </si>
   <si>
@@ -1101,26 +760,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変動費一覧</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変動費登録画面で登録されたデータが全件表示される　５件以上はスクロールさせ５件以下はデータ数に合わせる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JK032</t>
-  </si>
-  <si>
-    <t>JK033</t>
-  </si>
-  <si>
     <t>結果表示</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
@@ -1131,10 +770,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JR００１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1143,12 +778,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JR００２</t>
-  </si>
-  <si>
-    <t>JR００３</t>
-  </si>
-  <si>
     <t>２登録失敗←変動費・固定費・スケジュール・ユーザー登録</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1156,17 +785,8 @@
     <t>３更新完了←ユーザー更新</t>
   </si>
   <si>
-    <t>4更新失敗←ユーザー更新</t>
-  </si>
-  <si>
     <t>５ログインエラー</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JR００４</t>
-  </si>
-  <si>
-    <t>JR００５</t>
   </si>
   <si>
     <t>家計簿サマリー　目標</t>
@@ -1179,29 +799,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録されたデータを表示</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿サマリー　残りの月</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家計簿サマリー　現在残高</t>
     <rPh sb="0" eb="3">
       <t>カケイボ</t>
@@ -1241,10 +838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userテーブルのdeadlineと現在の日付の差から月を表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>userテーブルのsalaryからデータを取得して表示する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1255,18 +848,6 @@
   <si>
     <t>userテーブルのgoal÷(deadline-現在の日付)の値を表示</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JK034</t>
-  </si>
-  <si>
-    <t>JK035</t>
-  </si>
-  <si>
-    <t>JK036</t>
-  </si>
-  <si>
-    <t>JK037</t>
   </si>
   <si>
     <t>ログアウト機能</t>
@@ -1289,6 +870,522 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーで登録したい日付を選択して登録（初期値は当日）</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーで更新したい日付を選択し更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿サマリー　達成期限</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>タッセイキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルのdeadlineと現在の日付の差から達成期限を表示する</t>
+    <rPh sb="27" eb="31">
+      <t>タッセイキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿サマリー　貯金目標</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>チョキンモクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルのgoalからデータを取得して表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録画面で登録されたデータが全件表示される。データが５件以上の場合はスクロールできるようになる。５件以下の場合はデータ数に合わせる</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された金額を登録（最大１億円）</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したデータの年月を使って検索をする。</t>
+    <rPh sb="8" eb="10">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　メモ</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　日付</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　カテゴリー</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　金額</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費　メモ</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録画面で登録されたデータが全件表示される。データが５件以上の場合はスクロールできるようになる。５件以下の場合はデータ数に合わせる</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　日付</t>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費　金額</t>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費登録</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された内容で登録する</t>
+  </si>
+  <si>
+    <t>入力された内容で登録する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費登録</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費リセット</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費リセット</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費削除</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定費削除</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、PWを入力してログイン（どちらかが未入力の場合エラーメッセージを表示）</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーで自分の体質（暑がり・寒がり・普通）を選択して登録</t>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイシツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サム</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容をテキストボックスに入力して更新（１００文字まで入力可能）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報更新</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー更新</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報を更新</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JU006</t>
+  </si>
+  <si>
+    <t>更新内容をテキストボックスに入力して更新（最大１億円）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オクエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された金額を登録（最大１億円）</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オクエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JD００１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JD００２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JD００３</t>
+  </si>
+  <si>
+    <t>JD００４</t>
+  </si>
+  <si>
+    <t>JD００５</t>
+  </si>
+  <si>
+    <t>スケジュール検索</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール登録</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールリセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルのreasonを表示</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JS011</t>
+  </si>
+  <si>
+    <t>スケジュール削除</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４更新失敗←ユーザー更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿検索</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したデータの年月を使って検索をする。合致する変動費・固定費がテーブル表示される</t>
+    <rPh sb="8" eb="10">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガッチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1400,7 +1497,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1445,6 +1542,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1785,11 +1888,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I81"/>
+  <dimension ref="A2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:C70"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1836,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="I4" s="13"/>
     </row>
@@ -1919,16 +2020,16 @@
         <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -1949,13 +2050,13 @@
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -1976,13 +2077,13 @@
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -2000,22 +2101,22 @@
         <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>6</v>
@@ -2027,22 +2128,22 @@
         <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>7</v>
@@ -2054,22 +2155,22 @@
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>8</v>
@@ -2081,7 +2182,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>33</v>
@@ -2090,13 +2191,13 @@
         <v>46</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>9</v>
@@ -2108,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>34</v>
@@ -2117,13 +2218,13 @@
         <v>47</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>10</v>
@@ -2135,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>35</v>
@@ -2144,7 +2245,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
@@ -2159,25 +2260,25 @@
         <v>15</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>12</v>
@@ -2192,13 +2293,13 @@
         <v>50</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>24</v>
@@ -2219,13 +2320,13 @@
         <v>50</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>24</v>
@@ -2246,13 +2347,13 @@
         <v>50</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>24</v>
@@ -2273,19 +2374,19 @@
         <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>16</v>
@@ -2300,19 +2401,19 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>17</v>
@@ -2327,19 +2428,19 @@
         <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>18</v>
@@ -2351,22 +2452,22 @@
         <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>19</v>
@@ -2378,22 +2479,22 @@
         <v>49</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>20</v>
@@ -2405,16 +2506,16 @@
         <v>49</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>24</v>
@@ -2435,13 +2536,13 @@
         <v>32</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>24</v>
@@ -2462,19 +2563,19 @@
         <v>32</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>23</v>
@@ -2486,22 +2587,22 @@
         <v>49</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>24</v>
@@ -2513,22 +2614,22 @@
         <v>49</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>25</v>
@@ -2543,19 +2644,19 @@
         <v>32</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>26</v>
@@ -2567,16 +2668,16 @@
         <v>49</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>24</v>
@@ -2597,13 +2698,13 @@
         <v>32</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>24</v>
@@ -2624,19 +2725,19 @@
         <v>32</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>29</v>
@@ -2648,22 +2749,22 @@
         <v>49</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>30</v>
@@ -2675,22 +2776,22 @@
         <v>49</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>31</v>
@@ -2702,20 +2803,22 @@
         <v>49</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>32</v>
@@ -2727,16 +2830,16 @@
         <v>49</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>24</v>
@@ -2757,13 +2860,13 @@
         <v>38</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>24</v>
@@ -2784,13 +2887,13 @@
         <v>38</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>24</v>
@@ -2811,10 +2914,10 @@
         <v>38</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>40</v>
@@ -2838,13 +2941,13 @@
         <v>38</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>24</v>
@@ -2865,13 +2968,13 @@
         <v>38</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>24</v>
@@ -2892,13 +2995,13 @@
         <v>38</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>24</v>
@@ -2919,10 +3022,10 @@
         <v>38</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>40</v>
@@ -2931,7 +3034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>40</v>
@@ -2943,16 +3046,16 @@
         <v>49</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>24</v>
@@ -2973,10 +3076,10 @@
         <v>44</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>45</v>
@@ -3000,10 +3103,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>45</v>
@@ -3021,25 +3124,25 @@
         <v>15</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>119</v>
+        <v>50</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>44</v>
@@ -3048,19 +3151,17 @@
         <v>15</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
@@ -3075,25 +3176,21 @@
         <v>15</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>46</v>
@@ -3101,26 +3198,26 @@
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>49</v>
+      <c r="D53" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>122</v>
+        <v>32</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>47</v>
@@ -3128,26 +3225,26 @@
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>49</v>
+      <c r="D54" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>123</v>
+        <v>32</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>45</v>
+        <v>92</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>48</v>
@@ -3155,20 +3252,20 @@
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>18</v>
+      <c r="D55" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>22</v>
+        <v>97</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>24</v>
@@ -3182,24 +3279,26 @@
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F56" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>50</v>
@@ -3207,20 +3306,24 @@
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F57" s="7" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I57" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
@@ -3231,19 +3334,19 @@
         <v>15</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>24</v>
@@ -3258,25 +3361,25 @@
         <v>15</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>53</v>
@@ -3285,25 +3388,25 @@
         <v>15</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>54</v>
@@ -3312,19 +3415,19 @@
         <v>15</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>109</v>
+        <v>167</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>24</v>
@@ -3338,20 +3441,20 @@
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>112</v>
+      <c r="D62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>110</v>
+        <v>170</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>24</v>
@@ -3365,26 +3468,26 @@
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>102</v>
+      <c r="D63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>111</v>
+        <v>171</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>57</v>
@@ -3392,26 +3495,26 @@
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>103</v>
+      <c r="D64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>58</v>
@@ -3419,26 +3522,26 @@
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>98</v>
+      <c r="D65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>39</v>
+        <v>173</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>59</v>
@@ -3447,263 +3550,136 @@
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2">
-        <v>60</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2">
-        <v>61</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2">
-        <v>62</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2">
-        <v>63</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="2">
-        <v>19</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="2"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="2">
-        <v>20</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="2"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="2">
-        <v>21</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="2"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="15"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="2">
-        <v>22</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="2"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="2">
-        <v>23</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="2"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="2">
-        <v>24</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="2"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="2">
-        <v>25</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="2">
-        <v>26</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="2">
-        <v>27</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="2">
-        <v>28</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="2">
-        <v>29</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="2"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3714,6 +3690,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
